--- a/data/NSA_provision.xlsx
+++ b/data/NSA_provision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7a332a5fbc005db/PEER project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{DA36F795-41CE-46DE-B274-8F50EFE9DC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED90E23D-5A4B-4E64-9AEA-78188C6AA69E}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{DA36F795-41CE-46DE-B274-8F50EFE9DC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E83E4345-6B22-4CD3-B8BA-71C9655DC71B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Provision" sheetId="23" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Provision!$B$1:$EB$212</definedName>
     <definedName name="institutions">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Provision!$B$1:$AO$214</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Provision!$B$1:$AS$214</definedName>
     <definedName name="schools">#REF!</definedName>
     <definedName name="Variables">#REF!</definedName>
   </definedNames>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="331">
   <si>
     <t>Region</t>
   </si>
@@ -1600,16 +1600,26 @@
   <si>
     <t>NSA_provision</t>
   </si>
+  <si>
+    <t>SnapshotURL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1926,186 +1936,189 @@
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2999,9 +3012,9 @@
   <dimension ref="A1:EB232"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="90" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A61" sqref="A61"/>
-      <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
+      <selection pane="bottomLeft" activeCell="AQ1" sqref="AQ1:DV161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3044,16 +3057,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="93" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>327</v>
       </c>
       <c r="E1" s="37" t="s">
@@ -3083,36 +3096,36 @@
       <c r="M1" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="46"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
       <c r="R1" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="49"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="53"/>
       <c r="W1" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="X1" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="41" t="s">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="43"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="47"/>
       <c r="AF1" s="38" t="s">
         <v>235</v>
       </c>
@@ -3140,7 +3153,9 @@
       <c r="AN1" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="AO1" s="35"/>
+      <c r="AO1" s="54" t="s">
+        <v>330</v>
+      </c>
       <c r="AP1" s="35"/>
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
@@ -3152,7 +3167,6 @@
       <c r="AX1" s="35"/>
       <c r="AY1" s="35"/>
       <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
     </row>
     <row r="2" spans="1:97" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -3237,9 +3251,6 @@
       <c r="AN2" s="5">
         <v>0</v>
       </c>
-      <c r="AQ2" s="5" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="3" spans="1:97" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -3351,9 +3362,6 @@
       <c r="AN3" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AQ3" s="5" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="4" spans="1:97" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -3473,9 +3481,6 @@
       <c r="AN4" s="5">
         <v>0</v>
       </c>
-      <c r="AQ4" s="5" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="5" spans="1:97" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -3589,9 +3594,6 @@
       <c r="AN5" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AQ5" s="5" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="6" spans="1:97" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -3677,9 +3679,6 @@
       <c r="AN6" s="5">
         <v>0</v>
       </c>
-      <c r="AQ6" s="5" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="7" spans="1:97" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -3793,9 +3792,6 @@
       <c r="AM7" s="6"/>
       <c r="AN7" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="AQ7" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:97" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4748,72 +4744,28 @@
       <c r="BU15" s="13"/>
       <c r="BV15" s="13"/>
       <c r="BW15" s="15"/>
-      <c r="BX15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="BY15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="BZ15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CA15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CB15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CC15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CD15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CE15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CF15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CG15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CH15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CI15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CJ15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CK15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CL15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CM15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CN15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CP15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CR15" s="16">
-        <v>3</v>
-      </c>
-      <c r="CS15" s="16">
-        <v>9</v>
-      </c>
+      <c r="BX15" s="13"/>
+      <c r="BY15" s="13"/>
+      <c r="BZ15" s="13"/>
+      <c r="CA15" s="13"/>
+      <c r="CB15" s="13"/>
+      <c r="CC15" s="13"/>
+      <c r="CD15" s="13"/>
+      <c r="CE15" s="13"/>
+      <c r="CF15" s="13"/>
+      <c r="CG15" s="13"/>
+      <c r="CH15" s="13"/>
+      <c r="CI15" s="13"/>
+      <c r="CJ15" s="13"/>
+      <c r="CK15" s="13"/>
+      <c r="CL15" s="13"/>
+      <c r="CM15" s="13"/>
+      <c r="CN15" s="13"/>
+      <c r="CO15" s="13"/>
+      <c r="CP15" s="13"/>
+      <c r="CQ15" s="13"/>
+      <c r="CR15" s="16"/>
+      <c r="CS15" s="16"/>
     </row>
     <row r="16" spans="1:97" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -9702,39 +9654,17 @@
       <c r="AP59" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="AQ59" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR59" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS59" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AT59" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU59" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AV59" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW59" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX59" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY59" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AZ59" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="BA59" s="15" t="s">
-        <v>210</v>
-      </c>
+      <c r="AQ59" s="15"/>
+      <c r="AR59" s="15"/>
+      <c r="AS59" s="15"/>
+      <c r="AT59" s="15"/>
+      <c r="AU59" s="15"/>
+      <c r="AV59" s="15"/>
+      <c r="AW59" s="15"/>
+      <c r="AX59" s="15"/>
+      <c r="AY59" s="15"/>
+      <c r="AZ59" s="15"/>
+      <c r="BA59" s="15"/>
     </row>
     <row r="60" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
@@ -14300,39 +14230,17 @@
       <c r="AP100" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="AQ100" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR100" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS100" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AT100" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU100" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AV100" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW100" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX100" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY100" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AZ100" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="BA100" s="17" t="s">
-        <v>210</v>
-      </c>
+      <c r="AQ100" s="17"/>
+      <c r="AR100" s="17"/>
+      <c r="AS100" s="17"/>
+      <c r="AT100" s="17"/>
+      <c r="AU100" s="17"/>
+      <c r="AV100" s="17"/>
+      <c r="AW100" s="17"/>
+      <c r="AX100" s="17"/>
+      <c r="AY100" s="17"/>
+      <c r="AZ100" s="17"/>
+      <c r="BA100" s="17"/>
     </row>
     <row r="101" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
@@ -15146,39 +15054,17 @@
       <c r="AP107" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="AQ107" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR107" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS107" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AT107" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU107" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AV107" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW107" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX107" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY107" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AZ107" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="BA107" s="15" t="s">
-        <v>210</v>
-      </c>
+      <c r="AQ107" s="15"/>
+      <c r="AR107" s="15"/>
+      <c r="AS107" s="15"/>
+      <c r="AT107" s="15"/>
+      <c r="AU107" s="15"/>
+      <c r="AV107" s="15"/>
+      <c r="AW107" s="15"/>
+      <c r="AX107" s="15"/>
+      <c r="AY107" s="15"/>
+      <c r="AZ107" s="15"/>
+      <c r="BA107" s="15"/>
     </row>
     <row r="108" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
@@ -19413,36 +19299,16 @@
       <c r="AP144" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="AQ144" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR144" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS144" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AT144" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU144" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AV144" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW144" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX144" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY144" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AZ144" s="15" t="s">
-        <v>210</v>
-      </c>
+      <c r="AQ144" s="15"/>
+      <c r="AR144" s="15"/>
+      <c r="AS144" s="15"/>
+      <c r="AT144" s="15"/>
+      <c r="AU144" s="15"/>
+      <c r="AV144" s="15"/>
+      <c r="AW144" s="15"/>
+      <c r="AX144" s="15"/>
+      <c r="AY144" s="15"/>
+      <c r="AZ144" s="15"/>
       <c r="BA144" s="15"/>
     </row>
     <row r="145" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -27997,7 +27863,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="18" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="16" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -28015,6 +27881,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5e9a0e2c-f998-4630-b2fc-2560f4373b64">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fa90dae9-fec5-4814-92e6-15a7d765aed5" xsi:nil="true"/>
+    <kwizcomcontrollerfield xmlns="5e9a0e2c-f998-4630-b2fc-2560f4373b64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B7D191E57F53740B3E9D42D95158CEE" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5da437be9e53c9d3df6da584bfd9382">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e9a0e2c-f998-4630-b2fc-2560f4373b64" xmlns:ns3="fa90dae9-fec5-4814-92e6-15a7d765aed5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbc4c4f35d7e5899cf518daca595bea8" ns2:_="" ns3:_="">
     <xsd:import namespace="5e9a0e2c-f998-4630-b2fc-2560f4373b64"/>
@@ -28275,28 +28162,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F243B5D-0D8C-408F-93AC-14F14B26A7D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5e9a0e2c-f998-4630-b2fc-2560f4373b64"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="fa90dae9-fec5-4814-92e6-15a7d765aed5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5e9a0e2c-f998-4630-b2fc-2560f4373b64">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fa90dae9-fec5-4814-92e6-15a7d765aed5" xsi:nil="true"/>
-    <kwizcomcontrollerfield xmlns="5e9a0e2c-f998-4630-b2fc-2560f4373b64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A05434-16E6-4933-B626-2FAE484B0138}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFF6F086-4B2A-480D-BA15-EC0FB1639686}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28315,31 +28206,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A05434-16E6-4933-B626-2FAE484B0138}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F243B5D-0D8C-408F-93AC-14F14B26A7D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5e9a0e2c-f998-4630-b2fc-2560f4373b64"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="fa90dae9-fec5-4814-92e6-15a7d765aed5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f8e024d6-51f2-471b-ac2c-b1117d65062e}" enabled="1" method="Standard" siteId="{1d4fae52-39b3-4bfa-b0b3-022956b11194}" removed="0"/>
